--- a/excelutils/target/classes/商业活动.xlsx
+++ b/excelutils/target/classes/商业活动.xlsx
@@ -635,7 +635,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="123">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1257,6 +1257,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1268,7 +1336,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="BFEAC5"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1548,7 +1616,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1733,12 +1801,9 @@
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="11">
         <f t="shared" si="0"/>
-        <v>单笔充值</v>
+        <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>97</v>

--- a/excelutils/target/classes/商业活动.xlsx
+++ b/excelutils/target/classes/商业活动.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="60" windowWidth="14970" windowHeight="12525"/>
+    <workbookView xWindow="435" yWindow="60" windowWidth="14970" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ActivityVO" sheetId="1" r:id="rId1"/>
+    <sheet name="ActivityVOO" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -526,15 +526,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-目标类型
-1001 单笔充值
-1002 累计充值
-1003 累计消费
-2001 收集类
-3001 兑换类
-4001 赠送类
-5001 购买类
-6001 系统折扣类</t>
+所属组编号</t>
         </r>
       </text>
     </comment>
@@ -560,73 +552,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-目标参数
-1001 单笔充值
-          0
-1002 累计充值
-          0
-1003 累计消费
-          0
-2001 收集类[类型,对应的编号]
-          20011 道具
-          20012 装备
-          20013 勋章
-          20014 翅膀
-          20015 武将
-          20016 宝石
-          20017 魂魄
-          20018 宝物
-3001 兑换类[类型,对应的编号]
-          30011 道具
-          30012 装备
-          30013 勋章
-          30014 翅膀
-          30015 武将
-          30016 宝石
-          30017 魂魄
-          30018 宝物
-4001 检测类
-          40011 等级段
-          40012 VIP等级段
-5001 购买类[类型,对应的编号]
-          50011 道具
-          50012 装备
-          50013 勋章
-          50014 翅膀
-          50015 武将
-          50016 宝石
-          50017 魂魄
-          50018 宝物
-6001 系统折扣类[功能编号]
-          60011 聚贤庄元宝单个抽将
-          60012 聚贤庄元宝十连抽将
-          60013 魂魄元宝抽取</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-目标数量</t>
+名称</t>
         </r>
       </text>
     </comment>
@@ -635,7 +561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="101">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,89 +603,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>targetParams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>targetNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002 累计充值</t>
-  </si>
-  <si>
-    <t>1003 累计消费</t>
-  </si>
-  <si>
-    <t>2001 收集类</t>
-  </si>
-  <si>
-    <t>3001 兑换类</t>
-  </si>
-  <si>
-    <t>5001 购买类</t>
-  </si>
-  <si>
-    <t>6001 系统折扣类</t>
-  </si>
-  <si>
-    <t>1001 单笔充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{收集类型,指定类型编号}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{兑换类型,指定类型编号}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{购买类型,指定类型编号}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{系统功能编号}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{充值额度}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{消费额度}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001 检测类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{检测类型}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{收集数量}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{提交数量}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{检测值}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{可购买量}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{开销}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1615,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1644,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1659,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1671,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -1680,13 +1524,13 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="11" customFormat="1">
@@ -1694,29 +1538,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C2" s="11" t="str">
         <f>B2</f>
         <v>单笔充值</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G2" s="11">
         <v>1001</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="J2" s="11">
         <v>1</v>
@@ -1737,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="11">
         <v>2</v>
@@ -1748,29 +1592,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C3" s="11" t="str">
         <f t="shared" ref="C3:C39" si="0">B3</f>
         <v>单笔充值</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G3" s="11">
         <v>1001</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J3" s="11">
         <v>1</v>
@@ -1791,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="11">
         <v>2</v>
@@ -1806,22 +1650,22 @@
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G4" s="11">
         <v>1001</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J4" s="11">
         <v>1</v>
@@ -1842,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="11">
         <v>2</v>
@@ -1853,29 +1697,29 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>单笔充值</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11">
         <v>1001</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J5" s="11">
         <v>1</v>
@@ -1896,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="11">
         <v>2</v>
@@ -1907,29 +1751,29 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>单笔充值</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11">
         <v>1001</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J6" s="11">
         <v>1</v>
@@ -1950,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="11">
         <v>2</v>
@@ -1961,29 +1805,29 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>累计充值</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7">
         <v>1002</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
@@ -2004,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="7">
         <v>2</v>
@@ -2015,29 +1859,29 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>累计充值</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7">
         <v>1002</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
@@ -2058,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7">
         <v>2</v>
@@ -2069,29 +1913,29 @@
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>累计充值</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7">
         <v>1002</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
@@ -2112,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7">
         <v>2</v>
@@ -2123,29 +1967,29 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>累计充值</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7">
         <v>1002</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J10" s="7">
         <v>1</v>
@@ -2166,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="7">
         <v>2</v>
@@ -2177,29 +2021,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>累计充值</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7">
         <v>1002</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
@@ -2220,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7">
         <v>2</v>
@@ -2231,29 +2075,29 @@
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>累计充值</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7">
         <v>1002</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
@@ -2274,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7">
         <v>2</v>
@@ -2285,29 +2129,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>累计充值</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7">
         <v>1002</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -2328,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="7">
         <v>2</v>
@@ -2339,29 +2183,29 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>累计充值</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7">
         <v>1002</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J14" s="7">
         <v>1</v>
@@ -2382,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7">
         <v>2</v>
@@ -2393,29 +2237,29 @@
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>累计充值</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7">
         <v>1002</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J15" s="7">
         <v>1</v>
@@ -2436,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7">
         <v>2</v>
@@ -2447,29 +2291,29 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>累计充值</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7">
         <v>1002</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J16" s="7">
         <v>1</v>
@@ -2490,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="7">
         <v>2</v>
@@ -2501,29 +2345,29 @@
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>累计消费</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G17" s="5">
         <v>1003</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J17" s="5">
         <v>1</v>
@@ -2544,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="5">
         <v>2</v>
@@ -2555,29 +2399,29 @@
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>累计消费</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G18" s="5">
         <v>1003</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J18" s="5">
         <v>1</v>
@@ -2598,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="5">
         <v>2</v>
@@ -2609,29 +2453,29 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>累计消费</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G19" s="5">
         <v>1003</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -2652,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="5">
         <v>2</v>
@@ -2663,29 +2507,29 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>累计消费</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G20" s="5">
         <v>1003</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J20" s="5">
         <v>1</v>
@@ -2706,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="5">
         <v>2</v>
@@ -2717,29 +2561,29 @@
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>累计消费</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G21" s="5">
         <v>1003</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J21" s="5">
         <v>1</v>
@@ -2760,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="5">
         <v>2</v>
@@ -2771,29 +2615,29 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>累计消费</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G22" s="5">
         <v>1003</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J22" s="5">
         <v>1</v>
@@ -2814,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="5">
         <v>2</v>
@@ -2825,29 +2669,29 @@
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>累计消费</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G23" s="5">
         <v>1003</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J23" s="5">
         <v>1</v>
@@ -2868,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="5">
         <v>2</v>
@@ -2879,29 +2723,29 @@
         <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>累计消费</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G24" s="5">
         <v>1003</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J24" s="5">
         <v>1</v>
@@ -2922,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="5">
         <v>2</v>
@@ -2933,29 +2777,29 @@
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>累计消费</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G25" s="5">
         <v>1003</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J25" s="5">
         <v>1</v>
@@ -2976,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="5">
         <v>2</v>
@@ -2987,29 +2831,29 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>累计消费</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G26" s="5">
         <v>1003</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J26" s="5">
         <v>1</v>
@@ -3030,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="5">
         <v>2</v>
@@ -3041,29 +2885,29 @@
         <v>4</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>天天爱收集</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G27" s="7">
         <v>20011</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J27" s="7">
         <v>1</v>
@@ -3075,16 +2919,16 @@
         <v>1</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="O27" s="7">
         <v>0</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7">
         <v>1</v>
@@ -3095,29 +2939,29 @@
         <v>4</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C28" s="7" t="str">
         <f t="shared" si="0"/>
         <v>天天爱收集</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7">
         <v>20011</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J28" s="7">
         <v>0</v>
@@ -3129,16 +2973,16 @@
         <v>1</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="O28" s="7">
         <v>0</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="7">
         <v>1</v>
@@ -3149,29 +2993,29 @@
         <v>5</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>限时兑换</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G29" s="11">
         <v>30011</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J29" s="11">
         <v>0</v>
@@ -3192,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="11">
         <v>2</v>
@@ -3203,29 +3047,29 @@
         <v>5</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>限时兑换</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G30" s="11">
         <v>30012</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J30" s="11">
         <v>0</v>
@@ -3246,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="11">
         <v>2</v>
@@ -3257,29 +3101,29 @@
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>好礼相送</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G31" s="9">
         <v>40011</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J31" s="9">
         <v>0</v>
@@ -3300,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="9">
         <v>2</v>
@@ -3311,29 +3155,29 @@
         <v>6</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>好礼相送</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G32" s="9">
         <v>40012</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J32" s="9">
         <v>0</v>
@@ -3354,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="9">
         <v>2</v>
@@ -3365,29 +3209,29 @@
         <v>7</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C33" s="7" t="str">
         <f t="shared" si="0"/>
         <v>神秘商人</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7">
         <v>5001</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J33" s="7">
         <v>0</v>
@@ -3408,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q33" s="7">
         <v>2</v>
@@ -3419,29 +3263,29 @@
         <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>神秘商人</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G34" s="7">
         <v>5001</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J34" s="7">
         <v>0</v>
@@ -3462,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="7">
         <v>2</v>
@@ -3473,29 +3317,29 @@
         <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>神秘商人</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G35" s="7">
         <v>5001</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J35" s="7">
         <v>0</v>
@@ -3516,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="7">
         <v>2</v>
@@ -3527,29 +3371,29 @@
         <v>7</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C36" s="7" t="str">
         <f t="shared" si="0"/>
         <v>神秘商人</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G36" s="7">
         <v>5001</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J36" s="7">
         <v>0</v>
@@ -3570,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="7">
         <v>2</v>
@@ -3581,29 +3425,29 @@
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>武将大甩卖</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G37" s="3">
         <v>60011</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -3624,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="3">
         <v>1</v>
@@ -3635,29 +3479,29 @@
         <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>武将大甩卖</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G38" s="3">
         <v>60012</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -3678,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="3">
         <v>1</v>
@@ -3689,29 +3533,29 @@
         <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>魂魄跳楼价</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G39" s="3">
         <v>60013</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -3732,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q39" s="3">
         <v>1</v>
@@ -3760,116 +3604,444 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
+      <c r="C7" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7">
+        <v>4</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7">
+        <v>4</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="11">
+        <v>5</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11">
+        <v>5</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9">
+        <v>6</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9">
+        <v>6</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7">
+        <v>7</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7">
+        <v>7</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7">
+        <v>7</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
